--- a/excel/trust_partition_time.xlsx
+++ b/excel/trust_partition_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datasets</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>all vertex</t>
+  </si>
+  <si>
+    <t>low degree part</t>
+  </si>
+  <si>
+    <t>high degree part</t>
   </si>
   <si>
     <t>WN</t>
@@ -443,364 +449,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.463</v>
+      </c>
       <c r="C2">
-        <v>0.463</v>
+        <v>0.446</v>
       </c>
       <c r="D2">
-        <v>0.446</v>
+        <v>0.909</v>
       </c>
       <c r="E2">
-        <v>0.583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>0.4906490649064906</v>
+      </c>
+      <c r="F2">
+        <v>0.5093509350935093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.079</v>
       </c>
       <c r="C3">
-        <v>0.079</v>
+        <v>0.521</v>
       </c>
       <c r="D3">
-        <v>0.521</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
-        <v>0.4889999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>0.8683333333333334</v>
+      </c>
+      <c r="F3">
+        <v>0.1316666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.035</v>
       </c>
       <c r="C4">
+        <v>0.901</v>
+      </c>
+      <c r="D4">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.9626068376068376</v>
+      </c>
+      <c r="F4">
+        <v>0.03739316239316239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.032</v>
+      </c>
+      <c r="C5">
+        <v>0.944</v>
+      </c>
+      <c r="D5">
+        <v>0.976</v>
+      </c>
+      <c r="E5">
+        <v>0.9672131147540983</v>
+      </c>
+      <c r="F5">
+        <v>0.03278688524590164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.748</v>
+      </c>
+      <c r="C6">
+        <v>3.855</v>
+      </c>
+      <c r="D6">
+        <v>4.603</v>
+      </c>
+      <c r="E6">
+        <v>0.8374972843797523</v>
+      </c>
+      <c r="F6">
+        <v>0.1625027156202477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.066</v>
+      </c>
+      <c r="C7">
+        <v>2.103</v>
+      </c>
+      <c r="D7">
+        <v>2.169</v>
+      </c>
+      <c r="E7">
+        <v>0.9695712309820195</v>
+      </c>
+      <c r="F7">
+        <v>0.03042876901798064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.723</v>
+      </c>
+      <c r="C8">
+        <v>1.828</v>
+      </c>
+      <c r="D8">
+        <v>2.551</v>
+      </c>
+      <c r="E8">
+        <v>0.7165817326538612</v>
+      </c>
+      <c r="F8">
+        <v>0.2834182673461387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.571</v>
+      </c>
+      <c r="C9">
+        <v>4.463</v>
+      </c>
+      <c r="D9">
+        <v>5.034</v>
+      </c>
+      <c r="E9">
+        <v>0.8865713150576083</v>
+      </c>
+      <c r="F9">
+        <v>0.1134286849423917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>0.035</v>
       </c>
-      <c r="D4">
-        <v>0.901</v>
-      </c>
-      <c r="E4">
-        <v>0.661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="C10">
+        <v>7.981</v>
+      </c>
+      <c r="D10">
+        <v>8.016</v>
+      </c>
+      <c r="E10">
+        <v>0.9956337325349301</v>
+      </c>
+      <c r="F10">
+        <v>0.004366267465069859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>0.032</v>
       </c>
-      <c r="D5">
-        <v>0.944</v>
-      </c>
-      <c r="E5">
-        <v>0.7380000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.748</v>
-      </c>
-      <c r="D6">
-        <v>3.855</v>
-      </c>
-      <c r="E6">
-        <v>2.597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.066</v>
-      </c>
-      <c r="D7">
-        <v>2.103</v>
-      </c>
-      <c r="E7">
-        <v>1.531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.723</v>
-      </c>
-      <c r="D8">
-        <v>1.828</v>
-      </c>
-      <c r="E8">
-        <v>1.534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.571</v>
-      </c>
-      <c r="D9">
-        <v>4.463</v>
-      </c>
-      <c r="E9">
-        <v>3.309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0.035</v>
-      </c>
-      <c r="D10">
-        <v>7.981</v>
-      </c>
-      <c r="E10">
-        <v>5.648000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11">
+        <v>12.619</v>
+      </c>
+      <c r="D11">
+        <v>12.651</v>
+      </c>
+      <c r="E11">
+        <v>0.9974705556872975</v>
+      </c>
+      <c r="F11">
+        <v>0.002529444312702553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6.728</v>
+      </c>
+      <c r="C12">
+        <v>33.668</v>
+      </c>
+      <c r="D12">
+        <v>40.396</v>
+      </c>
+      <c r="E12">
+        <v>0.8334488563224082</v>
+      </c>
+      <c r="F12">
+        <v>0.1665511436775918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1.404</v>
+      </c>
+      <c r="C13">
+        <v>17.688</v>
+      </c>
+      <c r="D13">
+        <v>19.092</v>
+      </c>
+      <c r="E13">
+        <v>0.9264613450659962</v>
+      </c>
+      <c r="F13">
+        <v>0.07353865493400379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>2.536</v>
+      </c>
+      <c r="C14">
+        <v>23.158</v>
+      </c>
+      <c r="D14">
+        <v>25.694</v>
+      </c>
+      <c r="E14">
+        <v>0.9012999143768973</v>
+      </c>
+      <c r="F14">
+        <v>0.09870008562310266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>0.032</v>
       </c>
-      <c r="D11">
-        <v>12.619</v>
-      </c>
-      <c r="E11">
-        <v>8.968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>6.728</v>
-      </c>
-      <c r="D12">
-        <v>33.668</v>
-      </c>
-      <c r="E12">
-        <v>28.765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1.404</v>
-      </c>
-      <c r="D13">
-        <v>17.688</v>
-      </c>
-      <c r="E13">
-        <v>13.042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2.536</v>
-      </c>
-      <c r="D14">
-        <v>23.158</v>
-      </c>
-      <c r="E14">
-        <v>18.134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
       <c r="C15">
+        <v>22.628</v>
+      </c>
+      <c r="D15">
+        <v>22.66</v>
+      </c>
+      <c r="E15">
+        <v>0.9985878199470433</v>
+      </c>
+      <c r="F15">
+        <v>0.001412180052956752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>170.486</v>
+      </c>
+      <c r="C16">
+        <v>103.47</v>
+      </c>
+      <c r="D16">
+        <v>273.956</v>
+      </c>
+      <c r="E16">
+        <v>0.3776883879163078</v>
+      </c>
+      <c r="F16">
+        <v>0.6223116120836922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>26.29</v>
+      </c>
+      <c r="C17">
+        <v>95.123</v>
+      </c>
+      <c r="D17">
+        <v>121.413</v>
+      </c>
+      <c r="E17">
+        <v>0.7834663503908148</v>
+      </c>
+      <c r="F17">
+        <v>0.2165336496091851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>12.803</v>
+      </c>
+      <c r="C18">
+        <v>120.853</v>
+      </c>
+      <c r="D18">
+        <v>133.656</v>
+      </c>
+      <c r="E18">
+        <v>0.9042093134614234</v>
+      </c>
+      <c r="F18">
+        <v>0.09579068653857664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
         <v>0.032</v>
       </c>
-      <c r="D15">
-        <v>22.628</v>
-      </c>
-      <c r="E15">
-        <v>15.994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>170.486</v>
-      </c>
-      <c r="D16">
-        <v>103.47</v>
-      </c>
-      <c r="E16">
-        <v>242.97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>26.29</v>
-      </c>
-      <c r="D17">
-        <v>95.123</v>
-      </c>
-      <c r="E17">
-        <v>93.669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>12.803</v>
-      </c>
-      <c r="D18">
-        <v>120.853</v>
-      </c>
-      <c r="E18">
-        <v>97.316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
       <c r="C19">
-        <v>0.032</v>
+        <v>90.212</v>
       </c>
       <c r="D19">
-        <v>90.212</v>
+        <v>90.244</v>
       </c>
       <c r="E19">
-        <v>64.596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
+        <v>0.9996454057887505</v>
+      </c>
+      <c r="F19">
+        <v>0.0003545942112495014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2554.271</v>
       </c>
       <c r="C20">
-        <v>2554.271</v>
+        <v>1052.215</v>
       </c>
       <c r="D20">
-        <v>1052.215</v>
+        <v>3606.486</v>
       </c>
       <c r="E20">
-        <v>3286.147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
+        <v>0.2917562968496203</v>
+      </c>
+      <c r="F20">
+        <v>0.7082437031503795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>937.438</v>
       </c>
       <c r="C21">
-        <v>937.438</v>
+        <v>1756.583</v>
       </c>
       <c r="D21">
-        <v>1756.583</v>
+        <v>2694.021</v>
       </c>
       <c r="E21">
-        <v>2226.639</v>
+        <v>0.6520301809080181</v>
+      </c>
+      <c r="F21">
+        <v>0.3479698190919818</v>
       </c>
     </row>
   </sheetData>
